--- a/DatabaseTesting_Nhom2_Toan_Son.xlsx
+++ b/DatabaseTesting_Nhom2_Toan_Son.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocKyII(2021-2022)\DDBCLKTPM\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4A80D-A3A9-4502-ACC2-4D393D221F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD57E8DF-C0B9-44CD-A9CF-521CF8C9BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B401535F-A068-48DB-A4B7-1696924FB6B9}"/>
+    <workbookView xWindow="2616" yWindow="2388" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{B401535F-A068-48DB-A4B7-1696924FB6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Testing - Table &amp; Field" sheetId="1" r:id="rId1"/>
+    <sheet name="Store Procedure Test Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="197">
   <si>
     <t>TC ID</t>
   </si>
@@ -921,13 +922,174 @@
   </si>
   <si>
     <t>TC050</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Test Query</t>
+  </si>
+  <si>
+    <t>Kiểm thử các Store Procedure có tồn tại trong Cơ sở dữ liệu không.</t>
+  </si>
+  <si>
+    <t>show procedure status where db='classicmodels';
+or
+show procedure status where Name='SelecAllCustomers';</t>
+  </si>
+  <si>
+    <t>Hiển thị tên các Store Procedure</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Procedure 'SelectAllCustomer' có hiển thị ra tất cả các bản ghi từ bảng 'customer' không</t>
+  </si>
+  <si>
+    <t>call SelectAllCustomer();</t>
+  </si>
+  <si>
+    <t>select * from customers;</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả bản ghi từ bảng 'customer'</t>
+  </si>
+  <si>
+    <t>call SelectAllCustomerByCity('Singapore')</t>
+  </si>
+  <si>
+    <t>select * from customer where city='Singapore'</t>
+  </si>
+  <si>
+    <t>Kiểm thử giá trị đầu vào của Store Procedure 'SelectAllCustomerByCity' có hợp lệ không</t>
+  </si>
+  <si>
+    <t>Kiểm thử giá trị đầu vào của Store Procedure 'SelectAllCustomerByCityAndPin' có hợp lệ không</t>
+  </si>
+  <si>
+    <t>TC0</t>
+  </si>
+  <si>
+    <t>call SelectAllCustomerByCityAndPin('Singapore','079903')</t>
+  </si>
+  <si>
+    <t>call GetOrderByCust(141,@shipped,@canceled,@resolved,@desputed);
+select @shipped,@canceled,@resolved,@desputed;</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>custNo=141</t>
+  </si>
+  <si>
+    <t>select * from customers where city='Singapore';</t>
+  </si>
+  <si>
+    <t>select * from customers where city='Singapore' and postalCode='079903';</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Procedure 'SelectAllCustomerByCity' có hiển thị ra tất cả các khách hàng ở thành phố Singapore</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Procedure 'SelectAllCustomerByCityAndPin' có hiển thị ra tất cả các khách hàng ở thành phố Singapore và postalCode là 079903</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Procedure 'GetOrderByCust' có hiển thị ra tổng số hóa đơn đã shipped, canceled, resolved và desputed không.</t>
+  </si>
+  <si>
+    <t>call GetCustomerShipping(112,@shipping);
+select @shipping;</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Procedure 'GetOrderByShipping' có hiển thị ra số ngày để hàng hóa có thể đến nơi dựa vào đất nước khách hàng sinh sống</t>
+  </si>
+  <si>
+    <t>shipped=22; canceled=0; resolved=1; desputed=1</t>
+  </si>
+  <si>
+    <t>shipped=null; canceled=null; resolved=1; desputed=1</t>
+  </si>
+  <si>
+    <t>2-day shipping</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Procedure 'InsertSupplierProduct' có biển thị ra thông báo lỗi đã custom không</t>
+  </si>
+  <si>
+    <t>Bước 1: call InsertSupplierProduct(1,1) -&gt; Run
+Bước 2: call InsertSupplierProduct(1,3); -&gt; Run</t>
+  </si>
+  <si>
+    <t>supplierId, productId</t>
+  </si>
+  <si>
+    <t>'Duplicate keys error encountered'</t>
+  </si>
+  <si>
+    <t>select 
+(select count(*) as 'shipped' from orders where customerNumber=141 and status='Shipped') as Shipped,
+(select count(*) as 'canceled' from orders where customerNumber=141 and status='Canceld') as Cancled,
+(select count(*) as 'resolved' from orders where customerNumber=141 and status='Resolved') as Resolved,
+(select count(*) as 'disputed' from orders where customerNumber=141 and status='Disputed') as Disputed;</t>
+  </si>
+  <si>
+    <t>select country,
+case
+when country='USA' then '2-day shipping'
+     when country='Canada' then '3-day shipping'
+     else '5-day shipping'
+end as shippingTime
+  from customers where customerNumber=112;</t>
+  </si>
+  <si>
+    <t>select * from customer where city='Singapore' and postalCode='079903'</t>
+  </si>
+  <si>
+    <t>city, postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city </t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả</t>
+  </si>
+  <si>
+    <t>Kiểm thử giá trị đầu vào của Store Procedure 'GetOrderByCust' có hợp lệ không</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>Kiểm thử giá trị đầu vào của Store Procedure 'GetOrderByShipping' có hợp lệ không</t>
+  </si>
+  <si>
+    <t>Ex1: 2-day shipping
+Ex2: 3-day shipping
+Ex3: 5-day shipping</t>
+  </si>
+  <si>
+    <t>Ex1: custNo=112
+Ex2: custNo=260
+Ex3: custNo=353</t>
+  </si>
+  <si>
+    <t>cityName='Singapore'</t>
+  </si>
+  <si>
+    <t>cityName='Singapore'
+pin='079903'</t>
+  </si>
+  <si>
+    <t>Hiển thị những khách hàng sống tại thành phố Singapore có postalCode là 079903</t>
+  </si>
+  <si>
+    <t>Hiển thị những khách hàng sống tại thành phố Singapore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,8 +1111,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,8 +1139,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1030,30 +1212,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,6 +1252,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58098193-6046-42ED-B2FA-66483D9AD7D9}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B43" sqref="B43:F43"/>
     </sheetView>
   </sheetViews>
@@ -1394,14 +1603,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1421,1442 +1630,1453 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>13</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>13</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>8</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>9</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>4</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="8" t="s">
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>9</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>9</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="8" t="s">
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="H12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="8" t="s">
+      <c r="H13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="8" t="s">
+      <c r="H14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="H15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="8" t="s">
+      <c r="H16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="H17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="H19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="7" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="8" t="s">
+      <c r="H20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="7" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="8" t="s">
+      <c r="H21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="7" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="H22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="7" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="8" t="s">
+      <c r="H23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="7" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="8" t="s">
+      <c r="H24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="7" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="8" t="s">
+      <c r="H25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="7" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="8" t="s">
+      <c r="H26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="7" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="8" t="s">
+      <c r="H27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="8" t="s">
+      <c r="H28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="8" t="s">
+      <c r="H29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="8" t="s">
+      <c r="H30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="8" t="s">
+      <c r="H31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="8" t="s">
+      <c r="H32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="8" t="s">
+      <c r="H33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="H34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="8" t="s">
+      <c r="H35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="8" t="s">
+      <c r="H36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="5" t="s">
+      <c r="H37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="H38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="5" t="s">
+      <c r="H39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="5" t="s">
+      <c r="H40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="H41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="5" t="s">
+      <c r="H42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="H43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="8" t="s">
+      <c r="H44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="5" t="s">
+      <c r="H45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="H46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="5" t="s">
+      <c r="H47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="5" t="s">
+      <c r="H48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="H49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="5" t="s">
+      <c r="H50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="5" t="s">
+      <c r="H51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="6" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B22:F22"/>
@@ -2867,35 +3087,398 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B47:F47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B65689D-2ACC-4A3B-8B81-14F31A4B2AEF}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DatabaseTesting_Nhom2_Toan_Son.xlsx
+++ b/DatabaseTesting_Nhom2_Toan_Son.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocKyII(2021-2022)\DDBCLKTPM\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD57E8DF-C0B9-44CD-A9CF-521CF8C9BA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F51D1-073D-4314-9B55-40DCB7C43560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2388" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{B401535F-A068-48DB-A4B7-1696924FB6B9}"/>
+    <workbookView xWindow="204" yWindow="1908" windowWidth="17280" windowHeight="8880" tabRatio="694" firstSheet="2" activeTab="2" xr2:uid="{B401535F-A068-48DB-A4B7-1696924FB6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Testing - Table &amp; Field" sheetId="1" r:id="rId1"/>
     <sheet name="Store Procedure Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Store Function Test Case" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="204">
   <si>
     <t>TC ID</t>
   </si>
@@ -965,9 +966,6 @@
     <t>Kiểm thử giá trị đầu vào của Store Procedure 'SelectAllCustomerByCityAndPin' có hợp lệ không</t>
   </si>
   <si>
-    <t>TC0</t>
-  </si>
-  <si>
     <t>call SelectAllCustomerByCityAndPin('Singapore','079903')</t>
   </si>
   <si>
@@ -975,9 +973,6 @@
 select @shipped,@canceled,@resolved,@desputed;</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>custNo=141</t>
   </si>
   <si>
@@ -1006,23 +1001,7 @@
     <t>shipped=22; canceled=0; resolved=1; desputed=1</t>
   </si>
   <si>
-    <t>shipped=null; canceled=null; resolved=1; desputed=1</t>
-  </si>
-  <si>
     <t>2-day shipping</t>
-  </si>
-  <si>
-    <t>Kiểm thử Store Procedure 'InsertSupplierProduct' có biển thị ra thông báo lỗi đã custom không</t>
-  </si>
-  <si>
-    <t>Bước 1: call InsertSupplierProduct(1,1) -&gt; Run
-Bước 2: call InsertSupplierProduct(1,3); -&gt; Run</t>
-  </si>
-  <si>
-    <t>supplierId, productId</t>
-  </si>
-  <si>
-    <t>'Duplicate keys error encountered'</t>
   </si>
   <si>
     <t>select 
@@ -1059,9 +1038,6 @@
     <t>custNo</t>
   </si>
   <si>
-    <t>Kiểm thử giá trị đầu vào của Store Procedure 'GetOrderByShipping' có hợp lệ không</t>
-  </si>
-  <si>
     <t>Ex1: 2-day shipping
 Ex2: 3-day shipping
 Ex3: 5-day shipping</t>
@@ -1083,6 +1059,69 @@
   </si>
   <si>
     <t>Hiển thị những khách hàng sống tại thành phố Singapore</t>
+  </si>
+  <si>
+    <t>select * from customers</t>
+  </si>
+  <si>
+    <t>Kiểm thử giá trị đầu vào của Store Procedure 'GetCustomerShipping' có hợp lệ không</t>
+  </si>
+  <si>
+    <t>select 
+(select count(*) as 'shipped' from orders where customerNumber=141 and status='Shipped') as Shipped,
+(select count(*) as 'canceled' from orders where customerNumber=141 and status='Canceled') as Canceled,
+(select count(*) as 'resolved' from orders where customerNumber=141 and status='Resolved') as Resolved,
+(select count(*) as 'disputed' from orders where customerNumber=141 and status='Disputed') as Disputed;</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Function có tồn tại trong Cơ sở dữ liệu không.</t>
+  </si>
+  <si>
+    <t>show function status where db='classicmodels';
+or
+show function status where Name='CustomerLevel';</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các Store Function của Database</t>
+  </si>
+  <si>
+    <t>Như mong đợi</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Function 'CustomerLevel' có trả về customer lever khi gọi từ câu lệnh SQL</t>
+  </si>
+  <si>
+    <t>Kiểm thử Store Function 'CustomerLevel' có trả về customer level khi được gọi từ Store Procedure không.</t>
+  </si>
+  <si>
+    <t>Điều kiện cần là phải tạo Store Procedure 'GetCustomerLevel'  trước.
+call GetCustomerLevel(131,@customerLevel);
+select @customerLevel;</t>
+  </si>
+  <si>
+    <t>Tập kết quả giống dữ liệu</t>
+  </si>
+  <si>
+    <t>Tập các kết quả giống dữ liệu</t>
+  </si>
+  <si>
+    <t>select customerName,
+case
+when creditLimit &gt; 50000 then 'PLATINUM'
+   when creditLimit &gt;= 10000 and creditLimit &lt;= 50000 then  'GOLD'
+   when creditLimit &lt; 10000 then 'SILVER'
+end as customerlevel from customers;</t>
+  </si>
+  <si>
+    <t>select customerName, CustomerLevel(creditLimit) from customers;</t>
+  </si>
+  <si>
+    <t>select
+case
+when creditLimit &gt; 50000 then 'PLATINUM'
+   when creditLimit &gt;= 10000 and creditLimit &lt;= 50000 then  'GOLD'
+   when creditLimit &lt; 10000 then 'SILVER'
+end as customerlevel from customers where customerNumber=131;</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,14 +1184,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1212,22 +1245,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1241,7 +1263,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1253,23 +1286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,13 +1623,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1633,13 +1653,13 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1663,13 +1683,13 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1693,13 +1713,13 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1723,13 +1743,13 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="5" t="s">
         <v>45</v>
       </c>
@@ -1753,13 +1773,13 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="5" t="s">
         <v>44</v>
       </c>
@@ -1783,13 +1803,13 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="5" t="s">
         <v>43</v>
       </c>
@@ -1813,13 +1833,13 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
@@ -1843,13 +1863,13 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="5" t="s">
         <v>41</v>
       </c>
@@ -1873,13 +1893,13 @@
       <c r="A10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1903,13 +1923,13 @@
       <c r="A11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="5" t="s">
         <v>39</v>
       </c>
@@ -1933,13 +1953,13 @@
       <c r="A12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1961,13 +1981,13 @@
       <c r="A13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="5" t="s">
         <v>48</v>
       </c>
@@ -1989,13 +2009,13 @@
       <c r="A14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="5" t="s">
         <v>49</v>
       </c>
@@ -2017,13 +2037,13 @@
       <c r="A15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="5" t="s">
         <v>50</v>
       </c>
@@ -2045,13 +2065,13 @@
       <c r="A16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
@@ -2073,13 +2093,13 @@
       <c r="A17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5" t="s">
         <v>52</v>
       </c>
@@ -2101,13 +2121,13 @@
       <c r="A18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2129,13 +2149,13 @@
       <c r="A19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="5" t="s">
         <v>54</v>
       </c>
@@ -2157,13 +2177,13 @@
       <c r="A20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="5" t="s">
         <v>23</v>
       </c>
@@ -2185,13 +2205,13 @@
       <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="5" t="s">
         <v>70</v>
       </c>
@@ -2213,13 +2233,13 @@
       <c r="A22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="5" t="s">
         <v>71</v>
       </c>
@@ -2241,13 +2261,13 @@
       <c r="A23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="5" t="s">
         <v>72</v>
       </c>
@@ -2269,13 +2289,13 @@
       <c r="A24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="5" t="s">
         <v>73</v>
       </c>
@@ -2297,13 +2317,13 @@
       <c r="A25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="5" t="s">
         <v>74</v>
       </c>
@@ -2325,13 +2345,13 @@
       <c r="A26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="5" t="s">
         <v>75</v>
       </c>
@@ -2353,13 +2373,13 @@
       <c r="A27" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="5" t="s">
         <v>76</v>
       </c>
@@ -2381,13 +2401,13 @@
       <c r="A28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="5" t="s">
         <v>24</v>
       </c>
@@ -2409,13 +2429,13 @@
       <c r="A29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="5" t="s">
         <v>24</v>
       </c>
@@ -2437,13 +2457,13 @@
       <c r="A30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="5" t="s">
         <v>24</v>
       </c>
@@ -2465,13 +2485,13 @@
       <c r="A31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="5" t="s">
         <v>24</v>
       </c>
@@ -2493,13 +2513,13 @@
       <c r="A32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="5" t="s">
         <v>24</v>
       </c>
@@ -2521,13 +2541,13 @@
       <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="5" t="s">
         <v>24</v>
       </c>
@@ -2549,13 +2569,13 @@
       <c r="A34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="5" t="s">
         <v>24</v>
       </c>
@@ -2577,13 +2597,13 @@
       <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="5" t="s">
         <v>24</v>
       </c>
@@ -2605,13 +2625,13 @@
       <c r="A36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="5" t="s">
         <v>25</v>
       </c>
@@ -2633,13 +2653,13 @@
       <c r="A37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="5" t="s">
         <v>25</v>
       </c>
@@ -2661,13 +2681,13 @@
       <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="5" t="s">
         <v>25</v>
       </c>
@@ -2689,13 +2709,13 @@
       <c r="A39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="5" t="s">
         <v>25</v>
       </c>
@@ -2717,13 +2737,13 @@
       <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="5" t="s">
         <v>25</v>
       </c>
@@ -2745,13 +2765,13 @@
       <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="5" t="s">
         <v>25</v>
       </c>
@@ -2773,13 +2793,13 @@
       <c r="A42" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="5" t="s">
         <v>25</v>
       </c>
@@ -2801,13 +2821,13 @@
       <c r="A43" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="5" t="s">
         <v>25</v>
       </c>
@@ -2829,13 +2849,13 @@
       <c r="A44" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="5" t="s">
         <v>26</v>
       </c>
@@ -2857,13 +2877,13 @@
       <c r="A45" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="5" t="s">
         <v>26</v>
       </c>
@@ -2885,13 +2905,13 @@
       <c r="A46" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="5" t="s">
         <v>26</v>
       </c>
@@ -2913,13 +2933,13 @@
       <c r="A47" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="5" t="s">
         <v>26</v>
       </c>
@@ -2941,13 +2961,13 @@
       <c r="A48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="5" t="s">
         <v>26</v>
       </c>
@@ -2969,13 +2989,13 @@
       <c r="A49" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="5" t="s">
         <v>26</v>
       </c>
@@ -2997,13 +3017,13 @@
       <c r="A50" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="5" t="s">
         <v>26</v>
       </c>
@@ -3025,13 +3045,13 @@
       <c r="A51" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="5" t="s">
         <v>26</v>
       </c>
@@ -3060,6 +3080,13 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B1:F1"/>
@@ -3077,13 +3104,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B30:F30"/>
@@ -3111,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B65689D-2ACC-4A3B-8B81-14F31A4B2AEF}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,31 +3148,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3167,7 +3187,7 @@
         <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>20</v>
@@ -3181,7 +3201,7 @@
       <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3198,11 +3218,11 @@
       <c r="D3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>186</v>
+      <c r="E3" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>30</v>
@@ -3210,7 +3230,7 @@
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3222,16 +3242,16 @@
         <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>30</v>
@@ -3239,28 +3259,28 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>163</v>
+      <c r="I4" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>30</v>
@@ -3268,26 +3288,28 @@
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>183</v>
+      <c r="C6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>30</v>
@@ -3295,190 +3317,299 @@
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="I6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="E11" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="17" t="s">
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B7D759-07E8-43C1-B606-E4BE86CCC18B}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>